--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Inhbb-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Inhbb-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Acvr2b</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.709841333333333</v>
+        <v>4.308396</v>
       </c>
       <c r="H2">
-        <v>8.129524</v>
+        <v>12.925188</v>
       </c>
       <c r="I2">
-        <v>0.8843878562630022</v>
+        <v>0.8865596696737007</v>
       </c>
       <c r="J2">
-        <v>0.8843878562630021</v>
+        <v>0.8865596696737006</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.147652333333333</v>
+        <v>1.955270666666667</v>
       </c>
       <c r="N2">
-        <v>3.442957</v>
+        <v>5.865812</v>
       </c>
       <c r="O2">
-        <v>0.4117684485751235</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="P2">
-        <v>0.4117684485751233</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="Q2">
-        <v>3.109955729163111</v>
+        <v>8.424080319184</v>
       </c>
       <c r="R2">
-        <v>27.989601562468</v>
+        <v>75.816722872656</v>
       </c>
       <c r="S2">
-        <v>0.3641630155120957</v>
+        <v>0.3970842432433982</v>
       </c>
       <c r="T2">
-        <v>0.3641630155120956</v>
+        <v>0.3970842432433981</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.709841333333333</v>
+        <v>4.308396</v>
       </c>
       <c r="H3">
-        <v>8.129524</v>
+        <v>12.925188</v>
       </c>
       <c r="I3">
-        <v>0.8843878562630022</v>
+        <v>0.8865596696737007</v>
       </c>
       <c r="J3">
-        <v>0.8843878562630021</v>
+        <v>0.8865596696737006</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.8068029999999999</v>
       </c>
       <c r="O3">
-        <v>0.09649148090311768</v>
+        <v>0.06160472848893509</v>
       </c>
       <c r="P3">
-        <v>0.09649148090311765</v>
+        <v>0.06160472848893508</v>
       </c>
       <c r="Q3">
-        <v>0.7287693724191111</v>
+        <v>1.158675605996</v>
       </c>
       <c r="R3">
-        <v>6.558924351771999</v>
+        <v>10.428080453964</v>
       </c>
       <c r="S3">
-        <v>0.08533589394355066</v>
+        <v>0.05461626773948831</v>
       </c>
       <c r="T3">
-        <v>0.08533589394355062</v>
+        <v>0.0546162677394883</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.709841333333333</v>
+        <v>4.308396</v>
       </c>
       <c r="H4">
-        <v>8.129524</v>
+        <v>12.925188</v>
       </c>
       <c r="I4">
-        <v>0.8843878562630022</v>
+        <v>0.8865596696737007</v>
       </c>
       <c r="J4">
-        <v>0.8843878562630021</v>
+        <v>0.8865596696737006</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.377781</v>
+        <v>1.050406333333333</v>
       </c>
       <c r="N4">
-        <v>1.133343</v>
+        <v>3.151219</v>
       </c>
       <c r="O4">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="P4">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="Q4">
-        <v>1.023726568748</v>
+        <v>4.525566444908</v>
       </c>
       <c r="R4">
-        <v>9.213539118731999</v>
+        <v>40.730098004172</v>
       </c>
       <c r="S4">
-        <v>0.1198741676092745</v>
+        <v>0.21332074943916</v>
       </c>
       <c r="T4">
-        <v>0.1198741676092745</v>
+        <v>0.21332074943916</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,14 +711,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.709841333333333</v>
+        <v>4.308396</v>
       </c>
       <c r="H5">
-        <v>8.129524</v>
+        <v>12.925188</v>
       </c>
       <c r="I5">
-        <v>0.8843878562630022</v>
+        <v>0.8865596696737007</v>
       </c>
       <c r="J5">
-        <v>0.8843878562630021</v>
+        <v>0.8865596696737006</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5855753333333333</v>
+        <v>0.5333156666666666</v>
       </c>
       <c r="N5">
-        <v>1.756726</v>
+        <v>1.599947</v>
       </c>
       <c r="O5">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="P5">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="Q5">
-        <v>1.586816242047111</v>
+        <v>2.297735085004</v>
       </c>
       <c r="R5">
-        <v>14.281346178424</v>
+        <v>20.679615765036</v>
       </c>
       <c r="S5">
-        <v>0.1858096507126002</v>
+        <v>0.1083078938984995</v>
       </c>
       <c r="T5">
-        <v>0.1858096507126001</v>
+        <v>0.1083078938984995</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.709841333333333</v>
+        <v>4.308396</v>
       </c>
       <c r="H6">
-        <v>8.129524</v>
+        <v>12.925188</v>
       </c>
       <c r="I6">
-        <v>0.8843878562630022</v>
+        <v>0.8865596696737007</v>
       </c>
       <c r="J6">
-        <v>0.8843878562630021</v>
+        <v>0.8865596696737006</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4071873333333333</v>
+        <v>0.5575549999999999</v>
       </c>
       <c r="N6">
-        <v>1.221562</v>
+        <v>1.672665</v>
       </c>
       <c r="O6">
-        <v>0.1460955479776033</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="P6">
-        <v>0.1460955479776032</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="Q6">
-        <v>1.103413066276445</v>
+        <v>2.40216773178</v>
       </c>
       <c r="R6">
-        <v>9.930717596488</v>
+        <v>21.61950958602</v>
       </c>
       <c r="S6">
-        <v>0.1292051284854811</v>
+        <v>0.1132305153531546</v>
       </c>
       <c r="T6">
-        <v>0.1292051284854811</v>
+        <v>0.1132305153531546</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>0.187785</v>
       </c>
       <c r="I7">
-        <v>0.02042859749086759</v>
+        <v>0.01288047861042144</v>
       </c>
       <c r="J7">
-        <v>0.02042859749086759</v>
+        <v>0.01288047861042144</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.147652333333333</v>
+        <v>1.955270666666667</v>
       </c>
       <c r="N7">
-        <v>3.442957</v>
+        <v>5.865812</v>
       </c>
       <c r="O7">
-        <v>0.4117684485751235</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="P7">
-        <v>0.4117684485751233</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="Q7">
-        <v>0.07183729780499999</v>
+        <v>0.12239016738</v>
       </c>
       <c r="R7">
-        <v>0.6465356802449999</v>
+        <v>1.10151150642</v>
       </c>
       <c r="S7">
-        <v>0.008411851895380207</v>
+        <v>0.005769081627088251</v>
       </c>
       <c r="T7">
-        <v>0.008411851895380204</v>
+        <v>0.00576908162708825</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.187785</v>
       </c>
       <c r="I8">
-        <v>0.02042859749086759</v>
+        <v>0.01288047861042144</v>
       </c>
       <c r="J8">
-        <v>0.02042859749086759</v>
+        <v>0.01288047861042144</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,10 +936,10 @@
         <v>0.8068029999999999</v>
       </c>
       <c r="O8">
-        <v>0.09649148090311768</v>
+        <v>0.06160472848893509</v>
       </c>
       <c r="P8">
-        <v>0.09649148090311765</v>
+        <v>0.06160472848893508</v>
       </c>
       <c r="Q8">
         <v>0.016833944595</v>
@@ -948,10 +948,10 @@
         <v>0.151505501355</v>
       </c>
       <c r="S8">
-        <v>0.001971185624667528</v>
+        <v>0.0007934983876025488</v>
       </c>
       <c r="T8">
-        <v>0.001971185624667527</v>
+        <v>0.0007934983876025487</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -980,10 +980,10 @@
         <v>0.187785</v>
       </c>
       <c r="I9">
-        <v>0.02042859749086759</v>
+        <v>0.01288047861042144</v>
       </c>
       <c r="J9">
-        <v>0.02042859749086759</v>
+        <v>0.01288047861042144</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.377781</v>
+        <v>1.050406333333333</v>
       </c>
       <c r="N9">
-        <v>1.133343</v>
+        <v>3.151219</v>
       </c>
       <c r="O9">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="P9">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="Q9">
-        <v>0.023647201695</v>
+        <v>0.065750184435</v>
       </c>
       <c r="R9">
-        <v>0.212824815255</v>
+        <v>0.591751659915</v>
       </c>
       <c r="S9">
-        <v>0.002768989988160145</v>
+        <v>0.003099253715569372</v>
       </c>
       <c r="T9">
-        <v>0.002768989988160145</v>
+        <v>0.003099253715569372</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1042,10 +1042,10 @@
         <v>0.187785</v>
       </c>
       <c r="I10">
-        <v>0.02042859749086759</v>
+        <v>0.01288047861042144</v>
       </c>
       <c r="J10">
-        <v>0.02042859749086759</v>
+        <v>0.01288047861042144</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5855753333333333</v>
+        <v>0.5333156666666666</v>
       </c>
       <c r="N10">
-        <v>1.756726</v>
+        <v>1.599947</v>
       </c>
       <c r="O10">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="P10">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="Q10">
-        <v>0.03665408799</v>
+        <v>0.033382894155</v>
       </c>
       <c r="R10">
-        <v>0.32988679191</v>
+        <v>0.300446047395</v>
       </c>
       <c r="S10">
-        <v>0.004292042837817518</v>
+        <v>0.001573563019410606</v>
       </c>
       <c r="T10">
-        <v>0.004292042837817517</v>
+        <v>0.001573563019410606</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1104,10 +1104,10 @@
         <v>0.187785</v>
       </c>
       <c r="I11">
-        <v>0.02042859749086759</v>
+        <v>0.01288047861042144</v>
       </c>
       <c r="J11">
-        <v>0.02042859749086759</v>
+        <v>0.01288047861042144</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4071873333333333</v>
+        <v>0.5575549999999999</v>
       </c>
       <c r="N11">
-        <v>1.221562</v>
+        <v>1.672665</v>
       </c>
       <c r="O11">
-        <v>0.1460955479776033</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="P11">
-        <v>0.1460955479776032</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="Q11">
-        <v>0.02548789113</v>
+        <v>0.03490015522499999</v>
       </c>
       <c r="R11">
-        <v>0.22939102017</v>
+        <v>0.314101397025</v>
       </c>
       <c r="S11">
-        <v>0.002984527144842191</v>
+        <v>0.001645081860750663</v>
       </c>
       <c r="T11">
-        <v>0.002984527144842191</v>
+        <v>0.001645081860750663</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2916506666666667</v>
+        <v>0.05725033333333333</v>
       </c>
       <c r="H12">
-        <v>0.874952</v>
+        <v>0.171751</v>
       </c>
       <c r="I12">
-        <v>0.09518354624613032</v>
+        <v>0.01178068046871951</v>
       </c>
       <c r="J12">
-        <v>0.09518354624613029</v>
+        <v>0.01178068046871951</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.147652333333333</v>
+        <v>1.955270666666667</v>
       </c>
       <c r="N12">
-        <v>3.442957</v>
+        <v>5.865812</v>
       </c>
       <c r="O12">
-        <v>0.4117684485751235</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="P12">
-        <v>0.4117684485751233</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="Q12">
-        <v>0.3347135681182222</v>
+        <v>0.1119398974235555</v>
       </c>
       <c r="R12">
-        <v>3.012422113064</v>
+        <v>1.007459076812</v>
       </c>
       <c r="S12">
-        <v>0.0391935811676476</v>
+        <v>0.005276489275149954</v>
       </c>
       <c r="T12">
-        <v>0.03919358116764757</v>
+        <v>0.005276489275149953</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2916506666666667</v>
+        <v>0.05725033333333333</v>
       </c>
       <c r="H13">
-        <v>0.874952</v>
+        <v>0.171751</v>
       </c>
       <c r="I13">
-        <v>0.09518354624613032</v>
+        <v>0.01178068046871951</v>
       </c>
       <c r="J13">
-        <v>0.09518354624613029</v>
+        <v>0.01178068046871951</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.8068029999999999</v>
       </c>
       <c r="O13">
-        <v>0.09649148090311768</v>
+        <v>0.06160472848893509</v>
       </c>
       <c r="P13">
-        <v>0.09649148090311765</v>
+        <v>0.06160472848893508</v>
       </c>
       <c r="Q13">
-        <v>0.07843487760622223</v>
+        <v>0.01539658022811111</v>
       </c>
       <c r="R13">
-        <v>0.7059138984559999</v>
+        <v>0.138569222053</v>
       </c>
       <c r="S13">
-        <v>0.009184401334899502</v>
+        <v>0.0007257456216903658</v>
       </c>
       <c r="T13">
-        <v>0.009184401334899497</v>
+        <v>0.0007257456216903657</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2916506666666667</v>
+        <v>0.05725033333333333</v>
       </c>
       <c r="H14">
-        <v>0.874952</v>
+        <v>0.171751</v>
       </c>
       <c r="I14">
-        <v>0.09518354624613032</v>
+        <v>0.01178068046871951</v>
       </c>
       <c r="J14">
-        <v>0.09518354624613029</v>
+        <v>0.01178068046871951</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.377781</v>
+        <v>1.050406333333333</v>
       </c>
       <c r="N14">
-        <v>1.133343</v>
+        <v>3.151219</v>
       </c>
       <c r="O14">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="P14">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="Q14">
-        <v>0.110180080504</v>
+        <v>0.06013611271877777</v>
       </c>
       <c r="R14">
-        <v>0.9916207245359999</v>
+        <v>0.541225014469</v>
       </c>
       <c r="S14">
-        <v>0.01290163393306545</v>
+        <v>0.002834624303872808</v>
       </c>
       <c r="T14">
-        <v>0.01290163393306545</v>
+        <v>0.002834624303872807</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2916506666666667</v>
+        <v>0.05725033333333333</v>
       </c>
       <c r="H15">
-        <v>0.874952</v>
+        <v>0.171751</v>
       </c>
       <c r="I15">
-        <v>0.09518354624613032</v>
+        <v>0.01178068046871951</v>
       </c>
       <c r="J15">
-        <v>0.09518354624613029</v>
+        <v>0.01178068046871951</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5855753333333333</v>
+        <v>0.5333156666666666</v>
       </c>
       <c r="N15">
-        <v>1.756726</v>
+        <v>1.599947</v>
       </c>
       <c r="O15">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="P15">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="Q15">
-        <v>0.1707834363502222</v>
+        <v>0.03053249968855555</v>
       </c>
       <c r="R15">
-        <v>1.537050927152</v>
+        <v>0.2747924971969999</v>
       </c>
       <c r="S15">
-        <v>0.01999803746323782</v>
+        <v>0.001439204527234821</v>
       </c>
       <c r="T15">
-        <v>0.01999803746323781</v>
+        <v>0.001439204527234821</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05725033333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.171751</v>
+      </c>
+      <c r="I16">
+        <v>0.01178068046871951</v>
+      </c>
+      <c r="J16">
+        <v>0.01178068046871951</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5575549999999999</v>
+      </c>
+      <c r="N16">
+        <v>1.672665</v>
+      </c>
+      <c r="O16">
+        <v>0.1277190010175279</v>
+      </c>
+      <c r="P16">
+        <v>0.1277190010175279</v>
+      </c>
+      <c r="Q16">
+        <v>0.03192020960166666</v>
+      </c>
+      <c r="R16">
+        <v>0.287281886415</v>
+      </c>
+      <c r="S16">
+        <v>0.001504616740771559</v>
+      </c>
+      <c r="T16">
+        <v>0.001504616740771558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4314383333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.294315</v>
+      </c>
+      <c r="I17">
+        <v>0.08877917124715834</v>
+      </c>
+      <c r="J17">
+        <v>0.08877917124715833</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.955270666666667</v>
+      </c>
+      <c r="N17">
+        <v>5.865812</v>
+      </c>
+      <c r="O17">
+        <v>0.4478934208563147</v>
+      </c>
+      <c r="P17">
+        <v>0.4478934208563147</v>
+      </c>
+      <c r="Q17">
+        <v>0.8435787176422223</v>
+      </c>
+      <c r="R17">
+        <v>7.592208458780001</v>
+      </c>
+      <c r="S17">
+        <v>0.03976360671067833</v>
+      </c>
+      <c r="T17">
+        <v>0.03976360671067832</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4314383333333334</v>
+      </c>
+      <c r="H18">
+        <v>1.294315</v>
+      </c>
+      <c r="I18">
+        <v>0.08877917124715834</v>
+      </c>
+      <c r="J18">
+        <v>0.08877917124715833</v>
+      </c>
+      <c r="K18">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="L18">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G16">
-        <v>0.2916506666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.874952</v>
-      </c>
-      <c r="I16">
-        <v>0.09518354624613032</v>
-      </c>
-      <c r="J16">
-        <v>0.09518354624613029</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.4071873333333333</v>
-      </c>
-      <c r="N16">
-        <v>1.221562</v>
-      </c>
-      <c r="O16">
-        <v>0.1460955479776033</v>
-      </c>
-      <c r="P16">
-        <v>0.1460955479776032</v>
-      </c>
-      <c r="Q16">
-        <v>0.1187564572248889</v>
-      </c>
-      <c r="R16">
-        <v>1.068808115024</v>
-      </c>
-      <c r="S16">
-        <v>0.01390589234727995</v>
-      </c>
-      <c r="T16">
-        <v>0.01390589234727994</v>
+      <c r="M18">
+        <v>0.2689343333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.8068029999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.06160472848893509</v>
+      </c>
+      <c r="P18">
+        <v>0.06160472848893508</v>
+      </c>
+      <c r="Q18">
+        <v>0.1160285805494445</v>
+      </c>
+      <c r="R18">
+        <v>1.044257224945</v>
+      </c>
+      <c r="S18">
+        <v>0.005469216740153863</v>
+      </c>
+      <c r="T18">
+        <v>0.005469216740153861</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4314383333333334</v>
+      </c>
+      <c r="H19">
+        <v>1.294315</v>
+      </c>
+      <c r="I19">
+        <v>0.08877917124715834</v>
+      </c>
+      <c r="J19">
+        <v>0.08877917124715833</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.050406333333333</v>
+      </c>
+      <c r="N19">
+        <v>3.151219</v>
+      </c>
+      <c r="O19">
+        <v>0.2406163473663007</v>
+      </c>
+      <c r="P19">
+        <v>0.2406163473663007</v>
+      </c>
+      <c r="Q19">
+        <v>0.4531855577761111</v>
+      </c>
+      <c r="R19">
+        <v>4.078670019985</v>
+      </c>
+      <c r="S19">
+        <v>0.02136171990769855</v>
+      </c>
+      <c r="T19">
+        <v>0.02136171990769855</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.4314383333333334</v>
+      </c>
+      <c r="H20">
+        <v>1.294315</v>
+      </c>
+      <c r="I20">
+        <v>0.08877917124715834</v>
+      </c>
+      <c r="J20">
+        <v>0.08877917124715833</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.5333156666666666</v>
+      </c>
+      <c r="N20">
+        <v>1.599947</v>
+      </c>
+      <c r="O20">
+        <v>0.1221665022709214</v>
+      </c>
+      <c r="P20">
+        <v>0.1221665022709214</v>
+      </c>
+      <c r="Q20">
+        <v>0.2300928223672222</v>
+      </c>
+      <c r="R20">
+        <v>2.070835401305</v>
+      </c>
+      <c r="S20">
+        <v>0.01084584082577649</v>
+      </c>
+      <c r="T20">
+        <v>0.01084584082577649</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4314383333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.294315</v>
+      </c>
+      <c r="I21">
+        <v>0.08877917124715834</v>
+      </c>
+      <c r="J21">
+        <v>0.08877917124715833</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5575549999999999</v>
+      </c>
+      <c r="N21">
+        <v>1.672665</v>
+      </c>
+      <c r="O21">
+        <v>0.1277190010175279</v>
+      </c>
+      <c r="P21">
+        <v>0.1277190010175279</v>
+      </c>
+      <c r="Q21">
+        <v>0.2405505999416666</v>
+      </c>
+      <c r="R21">
+        <v>2.164955399475</v>
+      </c>
+      <c r="S21">
+        <v>0.0113387870628511</v>
+      </c>
+      <c r="T21">
+        <v>0.0113387870628511</v>
       </c>
     </row>
   </sheetData>
